--- a/workfile/锐安项目文档/方案页面原型及修改/采购分析.xlsx
+++ b/workfile/锐安项目文档/方案页面原型及修改/采购分析.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="采购项目分析表" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -466,29 +466,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -830,13 +830,13 @@
       <c r="K3" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -866,216 +866,216 @@
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="24">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22">
         <f ca="1">SUM(E9:E18)</f>
-        <v>70155</v>
-      </c>
-      <c r="F8" s="23">
+        <v>38872</v>
+      </c>
+      <c r="F8" s="21">
         <f ca="1">SUM(F9:F18)</f>
-        <v>6780217</v>
+        <v>4706022</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>5263</v>
-      </c>
-      <c r="F9" s="22">
+        <v>1945</v>
+      </c>
+      <c r="F9" s="20">
         <f ca="1">RANDBETWEEN(1000,1000000)</f>
-        <v>435016</v>
+        <v>352009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f t="shared" ref="E10:E18" ca="1" si="0">RANDBETWEEN(1000,10000)</f>
-        <v>8567</v>
-      </c>
-      <c r="F10" s="22">
-        <f t="shared" ref="E10:F18" ca="1" si="1">RANDBETWEEN(1000,1000000)</f>
-        <v>867557</v>
+        <v>6152</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ref="F10:F18" ca="1" si="1">RANDBETWEEN(1000,1000000)</f>
+        <v>728383</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>9020</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="E11" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2302</v>
+      </c>
+      <c r="F11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>575168</v>
+        <v>648081</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>8076</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="E12" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>7064</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>832096</v>
+        <v>345530</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>8690</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="E13" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3028</v>
+      </c>
+      <c r="F13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>513052</v>
+        <v>526667</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17">
         <v>6</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>9121</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="E14" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4067</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>795362</v>
+        <v>763057</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17">
         <v>7</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1107</v>
-      </c>
-      <c r="F15" s="22">
+      <c r="E15" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1261</v>
+      </c>
+      <c r="F15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>642333</v>
+        <v>261861</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17">
         <v>8</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5783</v>
-      </c>
-      <c r="F16" s="22">
+      <c r="E16" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>5579</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>980741</v>
+        <v>49576</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="17">
         <v>9</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5328</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="E17" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>5452</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>786913</v>
+        <v>998955</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="17">
         <v>10</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>9200</v>
-      </c>
-      <c r="F18" s="22">
+      <c r="E18" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>351979</v>
+        <v>31903</v>
       </c>
     </row>
   </sheetData>
@@ -1149,12 +1149,12 @@
       <c r="J3" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1184,169 +1184,169 @@
       <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="24">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22">
         <f ca="1">SUM(E9:E18)</f>
-        <v>53913</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>8610</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f t="shared" ref="E10:E18" ca="1" si="0">RANDBETWEEN(1000,10000)</f>
-        <v>7195</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1068</v>
+      <c r="E11" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4847</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>6092</v>
+      <c r="E12" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1511</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>7749</v>
+      <c r="E13" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4772</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17">
         <v>6</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2957</v>
+      <c r="E14" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>6504</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17">
         <v>7</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>3143</v>
+      <c r="E15" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3314</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17">
         <v>8</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5890</v>
+      <c r="E16" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>9589</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="17">
         <v>9</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2797</v>
+      <c r="E17" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4977</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="17">
         <v>10</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>8412</v>
+      <c r="E18" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2179</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,14 +1378,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -1421,231 +1421,231 @@
       <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <f ca="1">SUM(G5:G14)</f>
-        <v>64731</v>
+        <v>51053</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>2892</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <f t="shared" ref="G6:G14" ca="1" si="0">RANDBETWEEN(1000,10000)</f>
-        <v>3456</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1504</v>
+      <c r="G7" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4503</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>6729</v>
+      <c r="G8" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>5373</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>9850</v>
+      <c r="G9" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3174</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>9820</v>
+      <c r="G10" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>8215</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>7244</v>
+      <c r="G11" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4651</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>6389</v>
+      <c r="G12" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>6569</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>7541</v>
+      <c r="G13" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4126</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>9306</v>
+      <c r="G14" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4857</v>
       </c>
     </row>
   </sheetData>
@@ -1655,5 +1655,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>